--- a/sample.xlsx
+++ b/sample.xlsx
@@ -649,21 +649,21 @@
       <c r="G2" s="1">
         <v>1.5</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.67000000000000004</v>
+      <c r="H2">
+        <v>0.80000000000000004</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="2">
-        <f>B2*F2</f>
+        <f t="shared" ref="J2:J7" si="0">B2*F2</f>
         <v>1.4999999999999999e-02</v>
       </c>
       <c r="K2" s="2">
-        <f>C2*G2</f>
+        <f t="shared" ref="K2:K7" si="1">C2*G2</f>
         <v>0.22499999999999998</v>
       </c>
       <c r="L2" s="2">
-        <f>D2*H2</f>
-        <v>0.13400000000000001</v>
+        <f t="shared" ref="L2:L7" si="2">D2*H2</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="M2" t="s">
         <v>5</v>
@@ -677,11 +677,11 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <f>C2*B3/B2</f>
+        <f t="shared" ref="C3:C7" si="3">C2*B3/B2</f>
         <v>0.74999999999999989</v>
       </c>
       <c r="D3" s="2">
-        <f>D2*C3/C2</f>
+        <f t="shared" ref="D3:D7" si="4">D2*C3/C2</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -690,21 +690,21 @@
       <c r="G3" s="1">
         <v>1.3999999999999999</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.40000000000000002</v>
+      <c r="H3">
+        <v>0.69999999999999996</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="2">
-        <f>B3*F3</f>
+        <f t="shared" si="0"/>
         <v>5.5e-02</v>
       </c>
       <c r="K3" s="2">
-        <f>C3*G3</f>
+        <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="L3" s="2">
-        <f>D3*H3</f>
-        <v>0.40000000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.69999999999999996</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -715,11 +715,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <f>C3*B4/B3</f>
+        <f t="shared" si="3"/>
         <v>1.4999999999999998</v>
       </c>
       <c r="D4" s="2">
-        <f>D3*C4/C3</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F4">
@@ -728,21 +728,21 @@
       <c r="G4" s="1">
         <v>1.2</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.5</v>
+      <c r="H4">
+        <v>0.67000000000000004</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="2">
-        <f>B4*F4</f>
+        <f t="shared" si="0"/>
         <v>8.9999999999999997e-02</v>
       </c>
       <c r="K4" s="2">
-        <f>C4*G4</f>
+        <f t="shared" si="1"/>
         <v>1.7999999999999996</v>
       </c>
       <c r="L4" s="2">
-        <f>D4*H4</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.3400000000000001</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -753,33 +753,33 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <f>C4*B5/B4</f>
+        <f t="shared" si="3"/>
         <v>7.4999999999999991</v>
       </c>
       <c r="D5" s="2">
-        <f>D4*C5/C4</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F5">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G5" s="1">
         <v>1.24</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>0.59999999999999998</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="2">
-        <f>B5*F5</f>
-        <v>0.59999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K5" s="2">
-        <f>C5*G5</f>
+        <f t="shared" si="1"/>
         <v>9.2999999999999989</v>
       </c>
       <c r="L5" s="2">
-        <f>D5*H5</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -791,11 +791,11 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <f>C5*B6/B5</f>
+        <f t="shared" si="3"/>
         <v>14.999999999999996</v>
       </c>
       <c r="D6" s="2">
-        <f>D5*C6/C5</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="F6">
@@ -804,21 +804,21 @@
       <c r="G6" s="1">
         <v>1.23</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.69999999999999996</v>
+      <c r="H6">
+        <v>0.5</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="2">
-        <f>B6*F6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K6" s="2">
-        <f>C6*G6</f>
+        <f t="shared" si="1"/>
         <v>18.449999999999996</v>
       </c>
       <c r="L6" s="2">
-        <f>D6*H6</f>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -829,11 +829,11 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <f>C6*B7/B6</f>
+        <f t="shared" si="3"/>
         <v>37.499999999999986</v>
       </c>
       <c r="D7" s="2">
-        <f>D6*C7/C6</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F7">
@@ -842,24 +842,27 @@
       <c r="G7" s="1">
         <v>1.1899999999999999</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.80000000000000004</v>
+      <c r="H7">
+        <v>0.40000000000000002</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="2">
-        <f>B7*F7</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="K7" s="2">
-        <f>C7*G7</f>
+        <f t="shared" si="1"/>
         <v>44.624999999999979</v>
       </c>
       <c r="L7" s="2">
-        <f>D7*H7</f>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="H2:H7" columnSort="0">
+    <sortCondition sortBy="value" descending="0" ref="H2:H7"/>
+  </sortState>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -1051,7 +1054,7 @@
       </c>
       <c r="D3" s="2">
         <f>setup!L3</f>
-        <v>0.40000000000000002</v>
+        <v>0.69999999999999996</v>
       </c>
     </row>
     <row r="4">
@@ -1068,7 +1071,7 @@
       </c>
       <c r="D4" s="2">
         <f>setup!L4</f>
-        <v>1</v>
+        <v>1.3400000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1077,7 +1080,7 @@
       </c>
       <c r="B5" s="2">
         <f>setup!J5</f>
-        <v>0.59999999999999998</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C5" s="2">
         <f>setup!K5</f>
@@ -1102,7 +1105,7 @@
       </c>
       <c r="D6" s="2">
         <f>setup!L6</f>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1119,7 +1122,7 @@
       </c>
       <c r="D7" s="2">
         <f>setup!L7</f>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
